--- a/dtpu_configurations/only_integer16/50mhz/mxu_12x12/power.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_12x12/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.023758508265018463</v>
+        <v>0.026481028646230698</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.010587058961391449</v>
+        <v>0.011453032493591309</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.007237504236400127</v>
+        <v>0.007475130259990692</v>
       </c>
       <c r="E2" t="n" s="4">
         <v>0.009250984527170658</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>1.144631823990494E-4</v>
+        <v>1.5327485743910074E-4</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.0015687646809965372</v>
@@ -199,10 +199,10 @@
         <v>1.258823275566101</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.1274687945842743</v>
+        <v>0.12750037014484406</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4397859573364258</v>
+        <v>1.4436825513839722</v>
       </c>
     </row>
   </sheetData>
